--- a/Uploads/dxy_daily_close_price.xlsx
+++ b/Uploads/dxy_daily_close_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2598"/>
+  <dimension ref="A1:B2599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26412,7 +26412,17 @@
         </is>
       </c>
       <c r="B2598" t="n">
-        <v>99.45</v>
+        <v>99.47</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="B2599" t="n">
+        <v>100.2</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/dxy_daily_close_price.xlsx
+++ b/Uploads/dxy_daily_close_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2603"/>
+  <dimension ref="A1:B2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26462,7 +26462,17 @@
         </is>
       </c>
       <c r="B2603" t="n">
-        <v>99.67</v>
+        <v>99.61</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="B2604" t="n">
+        <v>99.70999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/dxy_daily_close_price.xlsx
+++ b/Uploads/dxy_daily_close_price.xlsx
@@ -26582,7 +26582,7 @@
         </is>
       </c>
       <c r="B2615" t="n">
-        <v>99.09999999999999</v>
+        <v>99.11</v>
       </c>
     </row>
   </sheetData>
